--- a/IE407/Homework 1/Solution/Q2.xlsx
+++ b/IE407/Homework 1/Solution/Q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre\GitHub\semester5\IE407\Homework 1\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053DC5BA-D2AB-41BD-A0C4-ED85C20920A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCFF807-740D-4615-BBC8-8EB4064B0479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{33FB3323-A567-40D3-81AE-CBF051382F96}"/>
+    <workbookView xWindow="1440" yWindow="1932" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="2" xr2:uid="{33FB3323-A567-40D3-81AE-CBF051382F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report a" sheetId="12" r:id="rId1"/>
@@ -462,12 +462,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -792,7 +792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E0E98A-B772-4E44-A7D1-BDA0B9980A6E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1360,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3148B006-0361-4C5D-80F1-A466C754F98C}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1931,7 +1933,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="R11" sqref="N8:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2125,19 +2127,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <f>B3*O9</f>
+        <f t="shared" ref="I9:L11" si="0">B3*O9</f>
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <f>C3*P9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <f>D3*Q9</f>
+        <f t="shared" si="0"/>
         <v>8997</v>
       </c>
       <c r="L9" s="3">
-        <f>E3*R9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="9" t="s">
@@ -2180,26 +2182,26 @@
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <f>B4*O10</f>
-        <v>8994</v>
+        <f t="shared" si="0"/>
+        <v>8994.6000000000022</v>
       </c>
       <c r="J10" s="3">
-        <f>C4*P10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <f>D4*Q10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <f>E4*R10</f>
-        <v>6006</v>
+        <f t="shared" si="0"/>
+        <v>6005.3999999999978</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="9">
-        <v>2998</v>
+        <v>2998.2000000000007</v>
       </c>
       <c r="P10" s="9">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>2002</v>
+        <v>2001.7999999999993</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(O10:R10)</f>
@@ -2235,15 +2237,15 @@
         <v>2</v>
       </c>
       <c r="I11" s="3">
-        <f>B5*O11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <f>C5*P11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <f>D5*Q11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11" s="3">
@@ -2306,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <f>O9*B8</f>
+        <f t="shared" ref="I15:L17" si="1">O9*B8</f>
         <v>0.9</v>
       </c>
       <c r="J15" s="3">
-        <f>P9*C8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <f>Q9*D8</f>
+        <f t="shared" si="1"/>
         <v>599.80000000000007</v>
       </c>
       <c r="L15" s="3">
-        <f>R9*E8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2327,20 +2329,20 @@
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <f>O10*B9</f>
-        <v>1499</v>
+        <f t="shared" si="1"/>
+        <v>1499.1000000000004</v>
       </c>
       <c r="J16" s="3">
-        <f>P10*C9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <f>Q10*D9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <f>R10*E9</f>
-        <v>500.5</v>
+        <f t="shared" si="1"/>
+        <v>500.44999999999982</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.3">
@@ -2348,15 +2350,15 @@
         <v>2</v>
       </c>
       <c r="I17" s="3">
-        <f>O11*B10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f>P11*C10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f>Q11*D10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L17" s="3">
@@ -2370,19 +2372,19 @@
       </c>
       <c r="I18" s="3">
         <f>SUM(I15:I17)</f>
-        <v>1499.9</v>
+        <v>1500.0000000000005</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:L18" si="0">SUM(J15:J17)</f>
+        <f t="shared" ref="J18:L18" si="2">SUM(J15:J17)</f>
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>599.80000000000007</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="0"/>
-        <v>1500.5000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1500.45</v>
       </c>
     </row>
   </sheetData>

--- a/IE407/Homework 1/Solution/Q2.xlsx
+++ b/IE407/Homework 1/Solution/Q2.xlsx
@@ -8,55 +8,56 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre\GitHub\semester5\IE407\Homework 1\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCFF807-740D-4615-BBC8-8EB4064B0479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7A576-F83E-4F9A-AB69-66F7BB6D2DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1932" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="2" xr2:uid="{33FB3323-A567-40D3-81AE-CBF051382F96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{33FB3323-A567-40D3-81AE-CBF051382F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report a" sheetId="12" r:id="rId1"/>
     <sheet name="Sensitivity Report f" sheetId="15" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sensitivity Report f2" sheetId="16" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet1!$O$9:$R$11</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet1!$I$18:$L$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Sheet1!$O$9</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Sheet1!$S$9:$S$11</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Sheet1!$S$9:$S$11</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet1!$B$13</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Sheet1!$B$11:$E$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Sheet1!$F$3:$F$5</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Sheet1!$F$3:$F$5</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Sheet1!$O$9:$R$11</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Sheet1!$I$18:$L$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Sheet1!$S$9:$S$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Sheet1!$S$9:$S$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Sheet1!$S$9:$S$11</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Sheet1!$B$13</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Sheet1!$B$11:$E$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Sheet1!$F$3:$F$5</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Sheet1!$F$3:$F$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">Sheet1!$F$3:$F$5</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="88">
   <si>
     <t>Cheesecake</t>
   </si>
@@ -342,6 +343,9 @@
   </si>
   <si>
     <t>Report Created: 25/10/2022 01:04:58</t>
+  </si>
+  <si>
+    <t>Report Created: 27/10/2022 15:18:40</t>
   </si>
 </sst>
 </file>
@@ -452,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -475,6 +479,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1929,11 +1941,581 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E79D39E-5348-4466-94F4-CF0527BA57CB}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1111.1111111111115</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2.99</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.0000000000000319E-2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.8899999999999969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1888.8888888888885</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.8899999999999969</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1.0000000000000325E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1.0044444444444456</v>
+      </c>
+      <c r="F12" s="11">
+        <v>4</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1.0044444444444456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="11">
+        <v>999.99999999999932</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3.0000000000000018</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.49444444444444269</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5.555555555557287E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.99444444444444269</v>
+      </c>
+      <c r="F14" s="11">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.99444444444444269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.99444444444444291</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.99444444444444291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4000.0000000000009</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11">
+        <v>5.555555555557287E-3</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.49444444444444269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4.0022222222222199</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4.0022222222222199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1.9888888888888845</v>
+      </c>
+      <c r="F18" s="11">
+        <v>6</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1.9888888888888845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.98888888888888515</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.98888888888888515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>4</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.98888888888888515</v>
+      </c>
+      <c r="H20" s="12">
+        <v>4.0111111111111146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E25" s="11">
+        <v>-1.1111111111111467E-2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1700.0000000000002</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1000.0000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="11">
+        <v>377.77777777777771</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1122.2222222222224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="E28" s="11">
+        <v>-2.2222222222229148E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="11">
+        <v>249.99999999999983</v>
+      </c>
+      <c r="H28" s="11">
+        <v>500.00000000000028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="11">
+        <v>3</v>
+      </c>
+      <c r="F29" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G29" s="11">
+        <v>5611.1111111111113</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1888.8888888888885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="11">
+        <v>3.0055555555555573</v>
+      </c>
+      <c r="F30" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2000.0000000000011</v>
+      </c>
+      <c r="H30" s="11">
+        <v>999.99999999999932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="12">
+        <v>4.0111111111111146</v>
+      </c>
+      <c r="F31" s="12">
+        <v>2000</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1000.0000000000008</v>
+      </c>
+      <c r="H31" s="12">
+        <v>499.99999999999977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3D1927-3483-4014-81FB-03385C8371D0}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R11" sqref="N8:R11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1983,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>5</v>
+        <v>2.99</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
@@ -2128,7 +2710,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" ref="I9:L11" si="0">B3*O9</f>
-        <v>5</v>
+        <v>3322.2222222222235</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
@@ -2136,7 +2718,7 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>8997</v>
+        <v>5666.6666666666652</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
@@ -2146,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>1</v>
+        <v>1111.1111111111115</v>
       </c>
       <c r="P9" s="9">
         <v>0</v>
       </c>
       <c r="Q9" s="9">
-        <v>2999</v>
+        <v>1888.8888888888885</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
@@ -2183,7 +2765,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>8994.6000000000022</v>
+        <v>2999.9999999999982</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
@@ -2195,13 +2777,13 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>6005.3999999999978</v>
+        <v>12000.000000000004</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="9">
-        <v>2998.2000000000007</v>
+        <v>999.99999999999932</v>
       </c>
       <c r="P10" s="9">
         <v>0</v>
@@ -2210,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>2001.7999999999993</v>
+        <v>4000.0000000000009</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(O10:R10)</f>
@@ -2250,7 +2832,7 @@
       </c>
       <c r="L11" s="3">
         <f>E5*R11</f>
-        <v>8000.0000000000018</v>
+        <v>8000</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>2</v>
@@ -2265,11 +2847,11 @@
         <v>0</v>
       </c>
       <c r="R11" s="9">
-        <v>2000.0000000000005</v>
+        <v>2000</v>
       </c>
       <c r="S11" s="9">
         <f>SUM(O11:R11)</f>
-        <v>2000.0000000000005</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2278,7 +2860,7 @@
       </c>
       <c r="B13">
         <f>SUM(I9:L11)</f>
-        <v>32002</v>
+        <v>31988.888888888891</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
@@ -2309,7 +2891,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ref="I15:L17" si="1">O9*B8</f>
-        <v>0.9</v>
+        <v>1000.0000000000005</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
@@ -2317,7 +2899,7 @@
       </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
-        <v>599.80000000000007</v>
+        <v>377.77777777777771</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="1"/>
@@ -2330,7 +2912,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="1"/>
-        <v>1499.1000000000004</v>
+        <v>499.99999999999966</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
@@ -2342,7 +2924,7 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="1"/>
-        <v>500.44999999999982</v>
+        <v>1000.0000000000002</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.3">
@@ -2363,7 +2945,7 @@
       </c>
       <c r="L17" s="3">
         <f>R11*E10</f>
-        <v>1000.0000000000002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.3">
@@ -2372,7 +2954,7 @@
       </c>
       <c r="I18" s="3">
         <f>SUM(I15:I17)</f>
-        <v>1500.0000000000005</v>
+        <v>1500</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" ref="J18:L18" si="2">SUM(J15:J17)</f>
@@ -2380,11 +2962,11 @@
       </c>
       <c r="K18" s="3">
         <f t="shared" si="2"/>
-        <v>599.80000000000007</v>
+        <v>377.77777777777771</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="2"/>
-        <v>1500.45</v>
+        <v>2000.0000000000002</v>
       </c>
     </row>
   </sheetData>
